--- a/Doc/NesteCommercy.xlsx
+++ b/Doc/NesteCommercy.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +16,53 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>InfoUserId</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>tbl_NE_User</t>
+  </si>
+  <si>
+    <t>tbl_NE_Product</t>
+  </si>
+  <si>
+    <t>tbl_NE_InfoUser</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SqlType</t>
+  </si>
+  <si>
+    <t>Define Size</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +378,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>